--- a/data/hotels_by_city/Houston/Houston_shard_421.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_421.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55879-d1852836-Reviews-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Knights-Inn-Galveston.h3801534.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,807 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r584172924-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>55879</t>
+  </si>
+  <si>
+    <t>1852836</t>
+  </si>
+  <si>
+    <t>584172924</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>A nice getaway !</t>
+  </si>
+  <si>
+    <t>The outside needs a little work needs curb appeal ,The coffee was good, the room was nice and  clean the price was great ! When you can look out your window and see the ocean and a few steps from it you cannot go wrong ! Comfortable bed nice a/c ! We had a great 2 days, Millers Landing down the seawall has great food, I plan on visiting soon! Dee</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r556654362-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>556654362</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>Very clean room...we wanted to spend the night.  Not a fortune.....Beds were comfortable...TV...Fridge and micro all nice....Would stay again...Hidden Gem all within walking distance of beach and anything you would need.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r515688123-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>515688123</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Thank You</t>
+  </si>
+  <si>
+    <t>I have been coming here for the last 6 years and I must say it has definitely come a long way. The staff have always been pleasant and friendly. The first year we didn't want to stay, but we managed. Every year there is some improvement made. Now they have completely did a overhaul on the property. Very pleasant and comfortable beds.  New paint and hardwood floors.  Thank you Knights Inn. See you Mardi Gras or sooner!!!!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r508177783-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>508177783</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Not Bad, and Inexpensive</t>
+  </si>
+  <si>
+    <t>After arriving in town on the weekend and getting several outrageous rate quotes, I found this place right across the street from the beach and a few blocks from the pier. It's a not real impressive looking single story complex; clean but shows some wear and tear. The rooms are on the smallish side, but for what it is it's OK. There's a store a couple of blocks away that sells beach supplies, basic food, and most importantly beer. The small fridge in the rooms will keep it cold.The desk staff was courteous; the younger gal is kinda cute too. I believe the rooms had WiFi, but I don't use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>After arriving in town on the weekend and getting several outrageous rate quotes, I found this place right across the street from the beach and a few blocks from the pier. It's a not real impressive looking single story complex; clean but shows some wear and tear. The rooms are on the smallish side, but for what it is it's OK. There's a store a couple of blocks away that sells beach supplies, basic food, and most importantly beer. The small fridge in the rooms will keep it cold.The desk staff was courteous; the younger gal is kinda cute too. I believe the rooms had WiFi, but I don't use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r504368340-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>504368340</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>PLEASANTLY SUPRISED</t>
+  </si>
+  <si>
+    <t>to look at this hotel it's not a resort that's for sure but it was clean,updated and A GREAT nights sleep great bed all was good and 75 bucks with my wyndoms go fast ,walking distance from beach,restaurants souvenirs  Very nice</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r503961380-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>503961380</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Worst experience in my life!</t>
+  </si>
+  <si>
+    <t>Worst receptionist I have ever seen in my entire life. She was very rude and unprofessional. I booked this hotel one week ahead of our express vacation I was looking for a hotel close by Galveston beach so we could go walking and enjoy our surrondings. But oh boy! When I went to check in there was this "Lady" in a very bad mood and the first thing she ask was how many people? So, I tried to make a conversation with her and she inmediatly responded " you can't stay here" I tried to explain her that I reserved a room for me, my husband and three kids under 12. She said that we overexcited the amount of people in one room and that we couldn't stay there she said call book.com and let them know, but she never help me or let me talk at all she was yelling at me repeating and repeating that I couldn't stay there acting extremely rude. So I had to leave that place and start over my search for a room. Thanks God we found out one hotel room close by the beach, with better costumer service and price.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Worst receptionist I have ever seen in my entire life. She was very rude and unprofessional. I booked this hotel one week ahead of our express vacation I was looking for a hotel close by Galveston beach so we could go walking and enjoy our surrondings. But oh boy! When I went to check in there was this "Lady" in a very bad mood and the first thing she ask was how many people? So, I tried to make a conversation with her and she inmediatly responded " you can't stay here" I tried to explain her that I reserved a room for me, my husband and three kids under 12. She said that we overexcited the amount of people in one room and that we couldn't stay there she said call book.com and let them know, but she never help me or let me talk at all she was yelling at me repeating and repeating that I couldn't stay there acting extremely rude. So I had to leave that place and start over my search for a room. Thanks God we found out one hotel room close by the beach, with better costumer service and price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r468410898-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>468410898</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Exceptionally Clean; Excellent Staff &amp; Service</t>
+  </si>
+  <si>
+    <t>We're just regular folks on a tight budget, wanting clean &amp; safe place to stay for grandkids (age 11 &amp; 6) first ever visit to the beach...and we found it!...right on Seawall Blvd!! Small, vintage, no-frills motel, but were very pleased. Room's small, but very clean, with microwave, mini-fridge &amp; good size flat screen tv (nice variety of channels). Great view of the beach &amp; Gulf of Mexico right across the street, with Galveston's Historic Pleasure Pier Amusement Park just down the street (beautiful when lit up at night)! Small lobby, but very clean, with free coffee, juice, milk, cereal, fruit, mini-muffins &amp; danishes from 7-10 am. Get what you want, walk across the street &amp; breakfast on the beach! No pool, but was Spring Break in March, so still too cool for that anyway, &amp; grandkids said they didn't care, can swim in pools anytime...they just wanted to experience the beach. So, if you want to pay the expensive-over-rated-full-spa-resort-type-place-price, go ahead &amp; pass this little gem by. But, in our opinion, if you want to experience all Galveston has to offer, and have a clean, safe, &amp; comfortable place to start &amp; end your day, this is it! Kids can't wait to go back to the beach, &amp; do other things we didn't get around to on this short trip, &amp; we're staying at Knights Inn again! (just check &amp; re-check your reservation, changes &amp;/or cancellations, with desk @...We're just regular folks on a tight budget, wanting clean &amp; safe place to stay for grandkids (age 11 &amp; 6) first ever visit to the beach...and we found it!...right on Seawall Blvd!! Small, vintage, no-frills motel, but were very pleased. Room's small, but very clean, with microwave, mini-fridge &amp; good size flat screen tv (nice variety of channels). Great view of the beach &amp; Gulf of Mexico right across the street, with Galveston's Historic Pleasure Pier Amusement Park just down the street (beautiful when lit up at night)! Small lobby, but very clean, with free coffee, juice, milk, cereal, fruit, mini-muffins &amp; danishes from 7-10 am. Get what you want, walk across the street &amp; breakfast on the beach! No pool, but was Spring Break in March, so still too cool for that anyway, &amp; grandkids said they didn't care, can swim in pools anytime...they just wanted to experience the beach. So, if you want to pay the expensive-over-rated-full-spa-resort-type-place-price, go ahead &amp; pass this little gem by. But, in our opinion, if you want to experience all Galveston has to offer, and have a clean, safe, &amp; comfortable place to start &amp; end your day, this is it! Kids can't wait to go back to the beach, &amp; do other things we didn't get around to on this short trip, &amp; we're staying at Knights Inn again! (just check &amp; re-check your reservation, changes &amp;/or cancellations, with desk @ Knights Inn personally, because it's Wyndham Corp that will mess you over...on-site motel staff is excellent!!)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>We're just regular folks on a tight budget, wanting clean &amp; safe place to stay for grandkids (age 11 &amp; 6) first ever visit to the beach...and we found it!...right on Seawall Blvd!! Small, vintage, no-frills motel, but were very pleased. Room's small, but very clean, with microwave, mini-fridge &amp; good size flat screen tv (nice variety of channels). Great view of the beach &amp; Gulf of Mexico right across the street, with Galveston's Historic Pleasure Pier Amusement Park just down the street (beautiful when lit up at night)! Small lobby, but very clean, with free coffee, juice, milk, cereal, fruit, mini-muffins &amp; danishes from 7-10 am. Get what you want, walk across the street &amp; breakfast on the beach! No pool, but was Spring Break in March, so still too cool for that anyway, &amp; grandkids said they didn't care, can swim in pools anytime...they just wanted to experience the beach. So, if you want to pay the expensive-over-rated-full-spa-resort-type-place-price, go ahead &amp; pass this little gem by. But, in our opinion, if you want to experience all Galveston has to offer, and have a clean, safe, &amp; comfortable place to start &amp; end your day, this is it! Kids can't wait to go back to the beach, &amp; do other things we didn't get around to on this short trip, &amp; we're staying at Knights Inn again! (just check &amp; re-check your reservation, changes &amp;/or cancellations, with desk @...We're just regular folks on a tight budget, wanting clean &amp; safe place to stay for grandkids (age 11 &amp; 6) first ever visit to the beach...and we found it!...right on Seawall Blvd!! Small, vintage, no-frills motel, but were very pleased. Room's small, but very clean, with microwave, mini-fridge &amp; good size flat screen tv (nice variety of channels). Great view of the beach &amp; Gulf of Mexico right across the street, with Galveston's Historic Pleasure Pier Amusement Park just down the street (beautiful when lit up at night)! Small lobby, but very clean, with free coffee, juice, milk, cereal, fruit, mini-muffins &amp; danishes from 7-10 am. Get what you want, walk across the street &amp; breakfast on the beach! No pool, but was Spring Break in March, so still too cool for that anyway, &amp; grandkids said they didn't care, can swim in pools anytime...they just wanted to experience the beach. So, if you want to pay the expensive-over-rated-full-spa-resort-type-place-price, go ahead &amp; pass this little gem by. But, in our opinion, if you want to experience all Galveston has to offer, and have a clean, safe, &amp; comfortable place to start &amp; end your day, this is it! Kids can't wait to go back to the beach, &amp; do other things we didn't get around to on this short trip, &amp; we're staying at Knights Inn again! (just check &amp; re-check your reservation, changes &amp;/or cancellations, with desk @ Knights Inn personally, because it's Wyndham Corp that will mess you over...on-site motel staff is excellent!!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r451308113-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>451308113</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Hotel reservation system very poor</t>
+  </si>
+  <si>
+    <t>I'm fortunate that I found out early this is not a good idea.  I made a reservation 5 days ago online.  I lost the reservation number.  I called them to cancel the reservation (found much better place cheaper) and they said they have no ability to do anything with reservations.  I asked if they were still going to charge my card in three months for the night.  The answer: yes.  So I can't cancel on my name, I can't cancel with a phone call to an actual person. But I will get charged.  Sounds about right.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r439698321-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>439698321</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>I've been to The Knights Inn I thought it was going to be Royal.The rooms were dirty honestly bedsheets,and bugs crawling.I'm never going to the Knight Inn unless there is no choice.All Knights Inn need a upgrade.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r391583054-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>391583054</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Horrible and not healthy</t>
+  </si>
+  <si>
+    <t>My room, 140 smelled like a cat litter box.  When I complained the j at the front desk said you rented it and your are staying in it.  This was after I asked for help getting the TV guide working.  The bed was less than 5 feet wide. Checking out even though Booking.com gives no refund, just like Expedia.Never ever stay here !!!!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r387262359-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>387262359</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Dont waste your money</t>
+  </si>
+  <si>
+    <t>We paid over $80 with tax. When we pulled in, i was immediately concerned. The lady at the desk was rude. The place is run down and the sign read beautiful from the inside out....got to room, smelled like mold and room extremely hot. Turned on AC and the smell was unreal. Went to bathroom and outside of tub was dirty and appeared they tried to paint over problems. We packed up and paid again for another room that was much higher quality for $109. It was worth losing money from first place. Dont stay there!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r385937434-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>385937434</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Pray for Sunshine</t>
+  </si>
+  <si>
+    <t>Things have changed since a lot of these reviews. When I first got there, my best friend and I saw them working on the hotel, but all of the construction was gone before the sun had set. Room was small and water was clean. There was no damage in the room. Sheets were clean too. Location is fabulous. It's a short walking distance from Pleasure Pier and almost right next to the Spot. Plenty of parking so you can walk on the seawall all day. If you don't plan on staying in your hotel for more than two hours a day, this is a good choice for you.At last it was a budget hotel on the beach so it was pretty bare. Breakfast is the worst I've had in a hotel. I won't call it a breakfast. It was just some premade pastries, cereal, coffee, and orange juice. I understand they want more customers by advertising free breakfast, but the hotel was not built for it. The hotel room is pretty much Hotel 6 standard, but I didn't come here for luxury. I went to this hotel for a roof over my head, a comfortably bed to sleep on, and hot, clean showers. I'm just lucky it didn't rain on this trip or I probably wouldn't be giving it as good as review as I do.MoreShow less</t>
+  </si>
+  <si>
+    <t>Things have changed since a lot of these reviews. When I first got there, my best friend and I saw them working on the hotel, but all of the construction was gone before the sun had set. Room was small and water was clean. There was no damage in the room. Sheets were clean too. Location is fabulous. It's a short walking distance from Pleasure Pier and almost right next to the Spot. Plenty of parking so you can walk on the seawall all day. If you don't plan on staying in your hotel for more than two hours a day, this is a good choice for you.At last it was a budget hotel on the beach so it was pretty bare. Breakfast is the worst I've had in a hotel. I won't call it a breakfast. It was just some premade pastries, cereal, coffee, and orange juice. I understand they want more customers by advertising free breakfast, but the hotel was not built for it. The hotel room is pretty much Hotel 6 standard, but I didn't come here for luxury. I went to this hotel for a roof over my head, a comfortably bed to sleep on, and hot, clean showers. I'm just lucky it didn't rain on this trip or I probably wouldn't be giving it as good as review as I do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r338931504-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>338931504</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>DO NOT WASTE YOUR MONEY HERE</t>
+  </si>
+  <si>
+    <t>The most horribly ran establishment I have ever set foot on. The desk clerk went to the extreme of disrespecting the manager because of his heritage. For the money I wasted on this place I could have driven back to Houston tonight.  Room was filthy and the door to my room was damaged like someone tried to break in recently. First impressions are lasting and Quite honestly, I will never set foot on a property labeled Knights Inn ever again</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r319282163-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>319282163</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!</t>
+  </si>
+  <si>
+    <t>the ONLY nice perk to this horrid motel is the location. You literally walk across the street and hit the sand. The pictures management posted of the rooms make them look twice as large as they really are. Keep in mind I am not a picky, hard-to-please woman, but when you can barely turn around, it's an issue. There was mold in the bathroom, dust/dirt clogged up in the AC and blow dryer, followed by a pair of boxers (yes UNDERWEAR) shoved in a hole in the ceiling. I was scared to touch anything and didn't dare to sleep on their comforter they probably never clean. I also spilled water on the floor and grabbed on of their towels to wipe it up. You wouldn't believe I picked up a  BLACK towel from all the dirt and only spilled a tiny amount of water. I showed the desk assistant and was not rude about it. She just rolled her eyes, snatched the towel out of my hands and sent housekeeping over. Their breakfast contains of these disgusting dollar store quality pastries.  I have provided pictures. I was trying to be frugal but no we customers are better off paying a little more for something nicer. You've been warned. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>the ONLY nice perk to this horrid motel is the location. You literally walk across the street and hit the sand. The pictures management posted of the rooms make them look twice as large as they really are. Keep in mind I am not a picky, hard-to-please woman, but when you can barely turn around, it's an issue. There was mold in the bathroom, dust/dirt clogged up in the AC and blow dryer, followed by a pair of boxers (yes UNDERWEAR) shoved in a hole in the ceiling. I was scared to touch anything and didn't dare to sleep on their comforter they probably never clean. I also spilled water on the floor and grabbed on of their towels to wipe it up. You wouldn't believe I picked up a  BLACK towel from all the dirt and only spilled a tiny amount of water. I showed the desk assistant and was not rude about it. She just rolled her eyes, snatched the towel out of my hands and sent housekeeping over. Their breakfast contains of these disgusting dollar store quality pastries.  I have provided pictures. I was trying to be frugal but no we customers are better off paying a little more for something nicer. You've been warned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r317535995-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>317535995</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>My Stay</t>
+  </si>
+  <si>
+    <t>The towels are a little thin and not enough of them. Nice. Quiet. Right acroos the street from the beach. Ideal location. The towels are a little thin and not enough of them. Nice. Quiet. Right across .....Ok, apparently I have enough characters now.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r278586424-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>278586424</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Don't Stay !!!</t>
+  </si>
+  <si>
+    <t>These rooms are horrible !!!  The building is completely outdated, the staff seemed to honestly not really care about anything and the rooms were the smallest I have ever seen. There is literally no where to really turn around, not to mention bring your own ice because we stayed the night of June 5 through the 6, 2015 and the ice machine did Not work. I stood there what felt like forever trying to get what Ice that I could.... :(</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r244995704-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>244995704</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Our 4-night stay at Knights Inn was very good.  It was across the street from the beach and you could see the Gulf anytime you looked out.  The view of the sunrise was excellent. The room was clean and the maid provided new linens as often as we let her.  We could park in front of the room.  The night clerk doubled as a maintenance man when he had to change the circuit board in our heater.  He was also very knowledgeable of the area.  We would definitely stay there if we are ever in Galveston again.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r235280705-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>235280705</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Newly Remodeled</t>
+  </si>
+  <si>
+    <t>In Galveston for a cruise wasn't expecting to stay here cause i though i was leaving. Had a suite overlooking the town and the beach, could see the tankers lit up at night. Room was clean and comfortable, with the exception of the square bed pillows. Only complaint. Staff was very pleasant, breakfast was good, and property was quiet and well maintained.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r217673026-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>217673026</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Beach front, near pleasure pier and bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rm 133 faces the beach, great view. The water goes dangerously hot!!.....I would not recommend leaving a child unattended in the restroom. And the restroom door wouldn't close, we had to hold it closed to use the toilet and shower with it open wide. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r216111840-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>216111840</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel ever!</t>
+  </si>
+  <si>
+    <t>This has got to be the worst hotel i have been to, ugly rooms, smelled like someone had peed all over the bed and or the sheets have never been washed. BAD CUSTOMER SERVICES, very disrespectful employees. WOULD NOT RECOMMEND THIS HOTEL TO MY WORST ENEMY. There are more hotels in Galveston for the same price and much nicer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r215411423-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>215411423</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r210269662-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>210269662</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Okay but could do better</t>
+  </si>
+  <si>
+    <t>I chose this hotel because it was the cheapest I could find on seawall. Honestly I was expecting a very bad experience but was pleasantly surprised. The hotel is old and the age definitely shows. However they have tried to upgrade a few things in the room. The bed was comfortable and the room was clean. Furniture seemed newish and it did a have flatscreen tv. However the walls were scuffed up pretty bad and could really use some paint. The room was also very poorly lit. But then again it's not a resort and wasn't expecting so. Wifi worked well and breakfast consisted of powdered donuts, Danish packages apples and bananas and cereal with NO milk. There was also coffee and tea bags. Not too impressed at $150/nt on a Wednesday night, but it was clean. Next time ill probably spend a little more and stay elsewhere. But if you're cash strapped and seawall is a must, this is a good place. MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose this hotel because it was the cheapest I could find on seawall. Honestly I was expecting a very bad experience but was pleasantly surprised. The hotel is old and the age definitely shows. However they have tried to upgrade a few things in the room. The bed was comfortable and the room was clean. Furniture seemed newish and it did a have flatscreen tv. However the walls were scuffed up pretty bad and could really use some paint. The room was also very poorly lit. But then again it's not a resort and wasn't expecting so. Wifi worked well and breakfast consisted of powdered donuts, Danish packages apples and bananas and cereal with NO milk. There was also coffee and tea bags. Not too impressed at $150/nt on a Wednesday night, but it was clean. Next time ill probably spend a little more and stay elsewhere. But if you're cash strapped and seawall is a must, this is a good place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r206917635-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>206917635</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>What a misleading website!</t>
+  </si>
+  <si>
+    <t>The location was fantastic.....this place needs to be gutted and rebuilt and it would be a goldmine! Over $200 a night for this filthy room was NOT worth it! Dont believe the ad that says part of Wyndham hotels!  Nothing "Wyndham" about this dump!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r206737512-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>206737512</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>After reading some of the other reviews my wife and I were a little apprehensive about our stay last weekend. Pleasantly we found the room to be clean and cozy. Yes it is an older property but the updates and rennovations were well done. We definitely will return.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r194261089-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>194261089</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>Tired and run down</t>
+  </si>
+  <si>
+    <t>Good location. Now I've said everything good about the hotel! We had to ask for shampoo, towels, toilet rolls. They had no extra pillows. The room was tired and run down. No coffee making machine. This hotel belongs in the 1960's. Avoid at all costs!</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r180610351-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>180610351</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>Wyndham motel ---NOT!!! It is a DUMP</t>
+  </si>
+  <si>
+    <t>I don't expect fancy BUT I do expect CLEAN. This was the most disgusting place I have ever stayed. Oh yes you are at the seawall BUT I will drive to the ocean next time. There were dead bugs on the floor in the bathroom, the shower was dirty and the water dripped out. There was a lump of brown (unknown substance) on the lamp. The carpet is dirty. The owner is rude. I used my Wyndham points to stay and it made him mad. First he gave me a different room and while the other guy checked me in the manager came and gave back and gave us a different room. The guy said "oh this is a nicer room". All I can say is if this was the nicer room I am glad I didnt see the other room. DON'T STAY HERE. I am not picky but i want clean. There wasn't nothing clean about this place. I won't even mention the outside ice machines condition. (no I did not use it). He has a gold mind and puts nothing into this place. It's all about the location. There was no empty rooms but someday his luck will run out. Health inspectors need to stay a night at this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I don't expect fancy BUT I do expect CLEAN. This was the most disgusting place I have ever stayed. Oh yes you are at the seawall BUT I will drive to the ocean next time. There were dead bugs on the floor in the bathroom, the shower was dirty and the water dripped out. There was a lump of brown (unknown substance) on the lamp. The carpet is dirty. The owner is rude. I used my Wyndham points to stay and it made him mad. First he gave me a different room and while the other guy checked me in the manager came and gave back and gave us a different room. The guy said "oh this is a nicer room". All I can say is if this was the nicer room I am glad I didnt see the other room. DON'T STAY HERE. I am not picky but i want clean. There wasn't nothing clean about this place. I won't even mention the outside ice machines condition. (no I did not use it). He has a gold mind and puts nothing into this place. It's all about the location. There was no empty rooms but someday his luck will run out. Health inspectors need to stay a night at this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r167555912-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>167555912</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Horrible Trip!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>We were told 1 price and then charged completely different...would not give refund or offer an xtra nite for 1/2 price...manager very rude..the cleaning crew however...very nice people!!!!! Would never stay there and would not recommend it to anybody!!!!!!!!!!!!!! Please verify what hotels charge and be sure to look around...a lot!!!!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r160443692-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>160443692</t>
+  </si>
+  <si>
+    <t>05/12/2013</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>This place is TERRIBLE, pubic hairs in bed, blood smears on bathrooms door, filthy, smelly, totally disgusting - air conditioner so noisy, didnt sleep all night, just kept scratching from the bugs. Was a Saturday night, so not even cheap - they have a real nerve charging over $120 a night - would rather than slept in the car</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r160201893-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>160201893</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>A Horrible Night</t>
+  </si>
+  <si>
+    <t>Location: Great. Beachfront!Price: Best pretty much anywhere on GalvestonHowever... We booked a non-smoking queen sized bedroom. When we arrived onsite, we were given a smoking bedroom and I am fairly confident the bed was no bigger than a full. My husband and I are small people, but we were very uncomfortable sleeping there and by morning, my sinuses were congested due to the overwhelming smoke smell. We tried to change rooms, but I guess they were all under construction and they swore we booked a smoking room. Also, the cleanliness was not the worst I've seen, but the toilet was left unflushed and there were small black hairs all over the shower and some in the bed (yuck). It could be a fluke, but it was pretty offsetting after a 12 hour drive to get there. Anyway... if you have to stay at this hotel, bring sheets and pillows if you can. I usually do and that makes things a lot more comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Location: Great. Beachfront!Price: Best pretty much anywhere on GalvestonHowever... We booked a non-smoking queen sized bedroom. When we arrived onsite, we were given a smoking bedroom and I am fairly confident the bed was no bigger than a full. My husband and I are small people, but we were very uncomfortable sleeping there and by morning, my sinuses were congested due to the overwhelming smoke smell. We tried to change rooms, but I guess they were all under construction and they swore we booked a smoking room. Also, the cleanliness was not the worst I've seen, but the toilet was left unflushed and there were small black hairs all over the shower and some in the bed (yuck). It could be a fluke, but it was pretty offsetting after a 12 hour drive to get there. Anyway... if you have to stay at this hotel, bring sheets and pillows if you can. I usually do and that makes things a lot more comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r159241748-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>159241748</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>What a great location! View of the ocean from our room. The night manager was very nice and the breakfast was also a nice touch. The room was very clean but the bed had no fitted sheet only a tucked in flat sheet...odd.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r142395355-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>142395355</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Location, Location, Location!</t>
+  </si>
+  <si>
+    <t>Summary:
+Is this the nicest hotel in Galveston? No, of course not and the price reflects that. However, it is located directly across from the seawall and now is down the street from Galveston's new Pleasure Pier. There is something very valuable in being able to wake up, open the curtains, and see the ocean front. That is why I am giving this hotel a 3 of 5. If it is amenities you are looking for and lavish rooms, then I would rate this a 1 of 5. But not everybody is looking for that, some people want a cheap hotel in the middle of it all and this hotel definitely meets that criteria.
+My Experience:
+The front clerk was very nice and courteous. He was calling me sir even though I was more than half his age. I booked a single King, and it was up at the front of the hotel giving me an ocean front room (It seemed as if over half the rooms had an ocean front view). The room was very basic. The tile in the bathroom had been updated and the tv was a 32" flat screen. The bed did not seem comfortable at first but I had a great night sleep. If you do not like stiff beds, then you probably need to look for another hotel. The AC was off when we got in the room, so it was a little muggy....Summary:Is this the nicest hotel in Galveston? No, of course not and the price reflects that. However, it is located directly across from the seawall and now is down the street from Galveston's new Pleasure Pier. There is something very valuable in being able to wake up, open the curtains, and see the ocean front. That is why I am giving this hotel a 3 of 5. If it is amenities you are looking for and lavish rooms, then I would rate this a 1 of 5. But not everybody is looking for that, some people want a cheap hotel in the middle of it all and this hotel definitely meets that criteria.My Experience:The front clerk was very nice and courteous. He was calling me sir even though I was more than half his age. I booked a single King, and it was up at the front of the hotel giving me an ocean front room (It seemed as if over half the rooms had an ocean front view). The room was very basic. The tile in the bathroom had been updated and the tv was a 32" flat screen. The bed did not seem comfortable at first but I had a great night sleep. If you do not like stiff beds, then you probably need to look for another hotel. The AC was off when we got in the room, so it was a little muggy. However, we turned it on and it was colder than we could handle in a matter of minutes. Check out time was 11 and when we asked, the clerk gave a us a 30-minutes late check out. All-in-all it was a great get away hotel. The King room (ocean front) costs about $39 during the week and about $69 on the weekends. Hope you enjoy!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Summary:
+Is this the nicest hotel in Galveston? No, of course not and the price reflects that. However, it is located directly across from the seawall and now is down the street from Galveston's new Pleasure Pier. There is something very valuable in being able to wake up, open the curtains, and see the ocean front. That is why I am giving this hotel a 3 of 5. If it is amenities you are looking for and lavish rooms, then I would rate this a 1 of 5. But not everybody is looking for that, some people want a cheap hotel in the middle of it all and this hotel definitely meets that criteria.
+My Experience:
+The front clerk was very nice and courteous. He was calling me sir even though I was more than half his age. I booked a single King, and it was up at the front of the hotel giving me an ocean front room (It seemed as if over half the rooms had an ocean front view). The room was very basic. The tile in the bathroom had been updated and the tv was a 32" flat screen. The bed did not seem comfortable at first but I had a great night sleep. If you do not like stiff beds, then you probably need to look for another hotel. The AC was off when we got in the room, so it was a little muggy....Summary:Is this the nicest hotel in Galveston? No, of course not and the price reflects that. However, it is located directly across from the seawall and now is down the street from Galveston's new Pleasure Pier. There is something very valuable in being able to wake up, open the curtains, and see the ocean front. That is why I am giving this hotel a 3 of 5. If it is amenities you are looking for and lavish rooms, then I would rate this a 1 of 5. But not everybody is looking for that, some people want a cheap hotel in the middle of it all and this hotel definitely meets that criteria.My Experience:The front clerk was very nice and courteous. He was calling me sir even though I was more than half his age. I booked a single King, and it was up at the front of the hotel giving me an ocean front room (It seemed as if over half the rooms had an ocean front view). The room was very basic. The tile in the bathroom had been updated and the tv was a 32" flat screen. The bed did not seem comfortable at first but I had a great night sleep. If you do not like stiff beds, then you probably need to look for another hotel. The AC was off when we got in the room, so it was a little muggy. However, we turned it on and it was colder than we could handle in a matter of minutes. Check out time was 11 and when we asked, the clerk gave a us a 30-minutes late check out. All-in-all it was a great get away hotel. The King room (ocean front) costs about $39 during the week and about $69 on the weekends. Hope you enjoy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r141517829-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>141517829</t>
+  </si>
+  <si>
+    <t>09/28/2012</t>
+  </si>
+  <si>
+    <t>Budget priced, descent room, on the beach</t>
+  </si>
+  <si>
+    <t>I stayed there this week.  The staff was nice.  The room was clean.  The bed was comfortable.  It is not an upscale hotel so one should not expect it to be plush.  I loved being across the street from the beach.  I felt safe and comfortable.  The microwave and Fridge looked new as well as the  32" flat screen TV.  I just needed a place to sleep and a few hours at the beach.  Why pay extra for things I won't use.  My only complaint was the towels were scratch and stiff and the tub was stained.  Overall, I will stay there again, most likely real soon.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r141050040-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>141050040</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Very bad expireance with the hotel owner</t>
+  </si>
+  <si>
+    <t>When i stayed here i saw a hotel from the outside looking not so bad. Untill i got in my room . It was not so clean bugs were on the tv stand. The bathroom , etc . I used my wyndham rewards to stay for two nights. I have told the owner about the bugs he said on the first day i will take care of it. So by that evening i seen more of them . So called him back. And he came with a severe attitude explaining to me it had been taken care of . And he said as if i was making this up. If i see anything take a picture of it. So did and got my evidence this time. Not trying to be rude or anything because of what galveston went thru the hurican . I thought i was being nice guy ny putting up with this. The owner was very rude about this situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>When i stayed here i saw a hotel from the outside looking not so bad. Untill i got in my room . It was not so clean bugs were on the tv stand. The bathroom , etc . I used my wyndham rewards to stay for two nights. I have told the owner about the bugs he said on the first day i will take care of it. So by that evening i seen more of them . So called him back. And he came with a severe attitude explaining to me it had been taken care of . And he said as if i was making this up. If i see anything take a picture of it. So did and got my evidence this time. Not trying to be rude or anything because of what galveston went thru the hurican . I thought i was being nice guy ny putting up with this. The owner was very rude about this situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r135102732-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>135102732</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>We made reservations through Wyndam. my daughter &amp; I arrived Monday afternoon. We stayed the entire week &amp; checked out Friday. We had a great time. It was a great price, right across the street from the beach. We never had a chance to make it for breakfast because we were always out &amp; about. The ac was nice &amp; cold. We never had them clean the room until we left because we were always tracking in beach sand &amp; didn't see any use. We'll either be back next month if not, then definitely next summer. Can't wait! =)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r134911239-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>134911239</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>Dirty and Rude</t>
+  </si>
+  <si>
+    <t>The room was not clean....stains on lampshade, curtains, carpet and bathroom floor.  The "clean" towels had hair on them and what appeared to be blood stains.  The staff was rude and very unfriendly.  Continental breakfast was a joke!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r133100060-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>133100060</t>
+  </si>
+  <si>
+    <t>06/30/2012</t>
+  </si>
+  <si>
+    <t>Location Location Location...that is all.</t>
+  </si>
+  <si>
+    <t>This motel is situated on Seawall Blvd. directly across from the beach. Other than that, this motel is in bad need of refurbishing. The room was extremely small. It was fairly clean but worn. The sheets had cigarette holes in them. The sink was cracked and appeared to have been for some time. The curtains on the windows had holes in them. It did have a microwave and refrigerator, albeit very old. The A/C was exceptional and kept the room very cold. The worst part of this room was the bathroom. The toilet was hard to flush. An old washcloth from the previous guest was hanging from the shower head. The tub's bottom was sunken in to the point of it was hard to stand while showering. The bathroom was very dark and just felt nasty. I never viewed any security on the property but never felt unsafe at anytime. I know that every motel can't have brand new items and wasn't expecting that for the price we paid but the overall run-down feeling will prevent us from staying at this property in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>This motel is situated on Seawall Blvd. directly across from the beach. Other than that, this motel is in bad need of refurbishing. The room was extremely small. It was fairly clean but worn. The sheets had cigarette holes in them. The sink was cracked and appeared to have been for some time. The curtains on the windows had holes in them. It did have a microwave and refrigerator, albeit very old. The A/C was exceptional and kept the room very cold. The worst part of this room was the bathroom. The toilet was hard to flush. An old washcloth from the previous guest was hanging from the shower head. The tub's bottom was sunken in to the point of it was hard to stand while showering. The bathroom was very dark and just felt nasty. I never viewed any security on the property but never felt unsafe at anytime. I know that every motel can't have brand new items and wasn't expecting that for the price we paid but the overall run-down feeling will prevent us from staying at this property in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r129711288-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>129711288</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Good 3 day stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed two days for about $86.00. The other hotels wanted at least $100.00 a night. For a limited budget the hotel was clean TV, refrigerator,table and chairs, dresser, bed and smoking and non smoking rooms and beach across the street and the over night clerk was very friendly and was also the hotel security. I liked that.! Every 30 minutes doing his rounds. Not much of a continental breakfast, but that was ok. We needed a room to sleep and go play on the beach.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r129233969-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>129233969</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>Waffles included in the breakfast bar... nearly the only perk.</t>
+  </si>
+  <si>
+    <t>I stayed their with a couple of girl friends of mine back in Sept 2011.  The staff at the front desk were very rude as said in other comments..  I had called ahead and they had said I would be able to start checking in as early as 1pm.  When I got there there was a printed piece of paper that had highlighted the 3PM check in time.  I told her we had called and asked and she said no, that it was always 3PM.  We chose this hotel b/c it was the cheapest that accepted pets. We arranged to leave the dog in the Kennel behind the front desk (which was a feat in itsself because she informed us multiple times that dogs were not allowed in the lobby... not really pet friendly as they say).
+The first room they gave us was occupied.  How embarrassing to try opening the door to where someone was currently staying!  The office quickly corrected and gave us a new room, upgraded us to two king sized beds.
+For someone with a pet in a kennel, that wants to be close to the beach.. this isn't a terrible deal.  There was a small tiled room meant for luggage right next to the bathroom that was perfect for the kennel.
+It is true about the hotel being very dirty.  At least the lobby and breakfast area were clean, but there was sand nearly everywhere...I stayed their with a couple of girl friends of mine back in Sept 2011.  The staff at the front desk were very rude as said in other comments..  I had called ahead and they had said I would be able to start checking in as early as 1pm.  When I got there there was a printed piece of paper that had highlighted the 3PM check in time.  I told her we had called and asked and she said no, that it was always 3PM.  We chose this hotel b/c it was the cheapest that accepted pets. We arranged to leave the dog in the Kennel behind the front desk (which was a feat in itsself because she informed us multiple times that dogs were not allowed in the lobby... not really pet friendly as they say).The first room they gave us was occupied.  How embarrassing to try opening the door to where someone was currently staying!  The office quickly corrected and gave us a new room, upgraded us to two king sized beds.For someone with a pet in a kennel, that wants to be close to the beach.. this isn't a terrible deal.  There was a small tiled room meant for luggage right next to the bathroom that was perfect for the kennel.It is true about the hotel being very dirty.  At least the lobby and breakfast area were clean, but there was sand nearly everywhere in the hotel before my friends and I had even gone to the beach.  It looked like it had tried to be clean though.We were pretty pleased since we were looking to save as much as we could for this mini-girls cation, but now that I'm going back to Galveston as a part of my honeymoon trip later this summer, this place is probably not going to be considered.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I stayed their with a couple of girl friends of mine back in Sept 2011.  The staff at the front desk were very rude as said in other comments..  I had called ahead and they had said I would be able to start checking in as early as 1pm.  When I got there there was a printed piece of paper that had highlighted the 3PM check in time.  I told her we had called and asked and she said no, that it was always 3PM.  We chose this hotel b/c it was the cheapest that accepted pets. We arranged to leave the dog in the Kennel behind the front desk (which was a feat in itsself because she informed us multiple times that dogs were not allowed in the lobby... not really pet friendly as they say).
+The first room they gave us was occupied.  How embarrassing to try opening the door to where someone was currently staying!  The office quickly corrected and gave us a new room, upgraded us to two king sized beds.
+For someone with a pet in a kennel, that wants to be close to the beach.. this isn't a terrible deal.  There was a small tiled room meant for luggage right next to the bathroom that was perfect for the kennel.
+It is true about the hotel being very dirty.  At least the lobby and breakfast area were clean, but there was sand nearly everywhere...I stayed their with a couple of girl friends of mine back in Sept 2011.  The staff at the front desk were very rude as said in other comments..  I had called ahead and they had said I would be able to start checking in as early as 1pm.  When I got there there was a printed piece of paper that had highlighted the 3PM check in time.  I told her we had called and asked and she said no, that it was always 3PM.  We chose this hotel b/c it was the cheapest that accepted pets. We arranged to leave the dog in the Kennel behind the front desk (which was a feat in itsself because she informed us multiple times that dogs were not allowed in the lobby... not really pet friendly as they say).The first room they gave us was occupied.  How embarrassing to try opening the door to where someone was currently staying!  The office quickly corrected and gave us a new room, upgraded us to two king sized beds.For someone with a pet in a kennel, that wants to be close to the beach.. this isn't a terrible deal.  There was a small tiled room meant for luggage right next to the bathroom that was perfect for the kennel.It is true about the hotel being very dirty.  At least the lobby and breakfast area were clean, but there was sand nearly everywhere in the hotel before my friends and I had even gone to the beach.  It looked like it had tried to be clean though.We were pretty pleased since we were looking to save as much as we could for this mini-girls cation, but now that I'm going back to Galveston as a part of my honeymoon trip later this summer, this place is probably not going to be considered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r129059999-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>129059999</t>
+  </si>
+  <si>
+    <t>04/29/2012</t>
+  </si>
+  <si>
+    <t>bad , will not stay again</t>
+  </si>
+  <si>
+    <t>people was rude and dirt was on the floor . the room was very small . i booked online ....</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r115918608-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>115918608</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>loved it and will be back</t>
+  </si>
+  <si>
+    <t>This is an older motel with no pool, but right across the street from the ocean!  Missed the coffee in the room but short walk to the office where they had coffee.  The beds were better than most of the motels with comfort tops.  Restaurants were walking distance which was also great.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r115683536-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>115683536</t>
+  </si>
+  <si>
+    <t>07/23/2011</t>
+  </si>
+  <si>
+    <t>DON'T WASTE UR MONEY!!! SPEND THE EXTRA 50 BUCKS!!</t>
+  </si>
+  <si>
+    <t>This was supposed to be our anniversary get away, we got married here 3 years ago.  We booked with hotwire and ended up being stuck here with no refund for this crap hole. The bed wuz not a king like it wuz supposed to be,  I took a shower in my pool shoes and I don't see where they upgraded anything.  I also noticed pieces of the doors missing. . . Its horrible and never again I will definitely spend the extra money.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r115631135-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>115631135</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>Well.... It's cheap I guess...</t>
+  </si>
+  <si>
+    <t>Yes, the price is right but that would be the only thing. If you don't care about anything other than a roof and bed, you'll love it, otherwise, this place is terrible. The room has no clock but it does have a microwave that burned all the popcorn we put in it (while it was still popping) and wouldn't heat any colder food. The only free and good thing there was an ice maker. One of the first things I noticed was the bullet hole in our window (never a good sign). It smelled akward in the room. The lights were so yellow it looked like they came from a drug trade scene in a movie and the light above the vanity didn't even work. The bed was hard as a rock and as if that didn't make it hard enough to sleep, the ac was incredibly loud and sounded like it was about to go out. The tiny bathroom was disgusting (what was the lady with a cart and broom for?) and there was NO HOT WATER in the shower. The continental breakfast was the smallest I had ever seen. Milk in a pitcher (and not cold) two cereals, very few honey buns, over ripe fruit, and then green fruit, and a few sunny d's (none of which had enough to feed the whole hotel im sure). The hotel had NO POOL and over all my mother and I...Yes, the price is right but that would be the only thing. If you don't care about anything other than a roof and bed, you'll love it, otherwise, this place is terrible. The room has no clock but it does have a microwave that burned all the popcorn we put in it (while it was still popping) and wouldn't heat any colder food. The only free and good thing there was an ice maker. One of the first things I noticed was the bullet hole in our window (never a good sign). It smelled akward in the room. The lights were so yellow it looked like they came from a drug trade scene in a movie and the light above the vanity didn't even work. The bed was hard as a rock and as if that didn't make it hard enough to sleep, the ac was incredibly loud and sounded like it was about to go out. The tiny bathroom was disgusting (what was the lady with a cart and broom for?) and there was NO HOT WATER in the shower. The continental breakfast was the smallest I had ever seen. Milk in a pitcher (and not cold) two cereals, very few honey buns, over ripe fruit, and then green fruit, and a few sunny d's (none of which had enough to feed the whole hotel im sure). The hotel had NO POOL and over all my mother and I HATED this place. Honestly, just go stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Yes, the price is right but that would be the only thing. If you don't care about anything other than a roof and bed, you'll love it, otherwise, this place is terrible. The room has no clock but it does have a microwave that burned all the popcorn we put in it (while it was still popping) and wouldn't heat any colder food. The only free and good thing there was an ice maker. One of the first things I noticed was the bullet hole in our window (never a good sign). It smelled akward in the room. The lights were so yellow it looked like they came from a drug trade scene in a movie and the light above the vanity didn't even work. The bed was hard as a rock and as if that didn't make it hard enough to sleep, the ac was incredibly loud and sounded like it was about to go out. The tiny bathroom was disgusting (what was the lady with a cart and broom for?) and there was NO HOT WATER in the shower. The continental breakfast was the smallest I had ever seen. Milk in a pitcher (and not cold) two cereals, very few honey buns, over ripe fruit, and then green fruit, and a few sunny d's (none of which had enough to feed the whole hotel im sure). The hotel had NO POOL and over all my mother and I...Yes, the price is right but that would be the only thing. If you don't care about anything other than a roof and bed, you'll love it, otherwise, this place is terrible. The room has no clock but it does have a microwave that burned all the popcorn we put in it (while it was still popping) and wouldn't heat any colder food. The only free and good thing there was an ice maker. One of the first things I noticed was the bullet hole in our window (never a good sign). It smelled akward in the room. The lights were so yellow it looked like they came from a drug trade scene in a movie and the light above the vanity didn't even work. The bed was hard as a rock and as if that didn't make it hard enough to sleep, the ac was incredibly loud and sounded like it was about to go out. The tiny bathroom was disgusting (what was the lady with a cart and broom for?) and there was NO HOT WATER in the shower. The continental breakfast was the smallest I had ever seen. Milk in a pitcher (and not cold) two cereals, very few honey buns, over ripe fruit, and then green fruit, and a few sunny d's (none of which had enough to feed the whole hotel im sure). The hotel had NO POOL and over all my mother and I HATED this place. Honestly, just go stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r110299004-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>110299004</t>
+  </si>
+  <si>
+    <t>05/28/2011</t>
+  </si>
+  <si>
+    <t>the indian receptionist is so rude!</t>
+  </si>
+  <si>
+    <t>i will never recommend this cheap hotel to anyone!! the service sucks! the carpet stinks, the bed cover has cigarrette hole, they said there is wifi but out of reach, the towels are rough as sand paper!</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1342,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1374,2750 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>152</v>
+      </c>
+      <c r="L31" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>228</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>241</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>243</v>
+      </c>
+      <c r="J34" t="s">
+        <v>244</v>
+      </c>
+      <c r="K34" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" t="s">
+        <v>256</v>
+      </c>
+      <c r="L36" t="s">
+        <v>257</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>258</v>
+      </c>
+      <c r="O36" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>264</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>289</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>291</v>
+      </c>
+      <c r="J42" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" t="s">
+        <v>293</v>
+      </c>
+      <c r="L42" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>296</v>
+      </c>
+      <c r="J43" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" t="s">
+        <v>298</v>
+      </c>
+      <c r="L43" t="s">
+        <v>299</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>300</v>
+      </c>
+      <c r="O43" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>303</v>
+      </c>
+      <c r="J44" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" t="s">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s">
+        <v>306</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_421.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_421.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r609866685-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>55879</t>
+  </si>
+  <si>
+    <t>1852836</t>
+  </si>
+  <si>
+    <t>609866685</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Right across from the beach!!</t>
+  </si>
+  <si>
+    <t>Okay - the room was super small, dust and some cobwebs - however, is what adequate for our needs (sleep and showers) and it is literally right across the street from the beach!!  We stayed two nights - enjoyed the beach and local food and beverages - office staff very friendly - would definitely stay again for the price!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r600879556-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>600879556</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Worst Hotel</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel is that it has a BEAUTIFUL view of the beach and Pleasure Pier. Super close walking distance to both.  Other than that it was absolutely DISGUSTING !! As soon as I walked in my room (which somehow I booked a smoking room, when i never saw an option at all for), i smelled a strong smell of stale cigarette smoke. When I asked to switch, they said I couldn’t and handed me a disinfectant spray bottle to spray in my room which I used the whole can and the smell still was there. I ended up going to buy Glade plug ins which kind of helped. On top of the smell, there was a fake eyelash stuck to my mirror and small little holes in the shower floor. There was a big burn mark in the sitting chair as well. I found a roach near the mini fridge, the TV remote wouldn’t work and you had to practically beat down your door to open it. And forget walking around barefoot in the hotel room, the floors were so nasty, my feet turned black anytime I set my feet on the carpet !! I had to wash my feet off every time I wanted to get in bed. Staff wasn’t the friendliest and you’re lucky if you get a parking spot. Worst hotel I’ve ever stayed in !MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel is that it has a BEAUTIFUL view of the beach and Pleasure Pier. Super close walking distance to both.  Other than that it was absolutely DISGUSTING !! As soon as I walked in my room (which somehow I booked a smoking room, when i never saw an option at all for), i smelled a strong smell of stale cigarette smoke. When I asked to switch, they said I couldn’t and handed me a disinfectant spray bottle to spray in my room which I used the whole can and the smell still was there. I ended up going to buy Glade plug ins which kind of helped. On top of the smell, there was a fake eyelash stuck to my mirror and small little holes in the shower floor. There was a big burn mark in the sitting chair as well. I found a roach near the mini fridge, the TV remote wouldn’t work and you had to practically beat down your door to open it. And forget walking around barefoot in the hotel room, the floors were so nasty, my feet turned black anytime I set my feet on the carpet !! I had to wash my feet off every time I wanted to get in bed. Staff wasn’t the friendliest and you’re lucky if you get a parking spot. Worst hotel I’ve ever stayed in !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r597931224-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>597931224</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>would stay there again on next visit</t>
+  </si>
+  <si>
+    <t>Not fancy but adequate. Right across street from a beautiful beach. Staff extremely friendly and helpful, parking a little tight on weekends but no problem during the week. The only negative was the magnetic card for room entry. Took several tries to enter the room each time but understand this is what most hotels are going to. All in all a good value.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r584172924-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
-    <t>55879</t>
-  </si>
-  <si>
-    <t>1852836</t>
-  </si>
-  <si>
     <t>584172924</t>
   </si>
   <si>
@@ -177,9 +231,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r556654362-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -216,6 +267,42 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r515045602-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>515045602</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>First time I stayed on the other side of the hotel was real nice.</t>
+  </si>
+  <si>
+    <t>Room was nice and very clean have stayed every time I come down and no complaints. Room was clean and very close to everything as far as shopping and dinner or lunch and didn't have to drive and I always feel safe and feel my vehicle is safe there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r512865413-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>512865413</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Cat piss, terrible customer service....I could go on</t>
+  </si>
+  <si>
+    <t>Room 120 smelled so bad it was nearly unbearable. The management was rude, didn't seem to care and unhelpful. Never again~!The bed was hard, the pillows were sub-standard, and the door lock worked sometimes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r508177783-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -234,9 +321,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>After arriving in town on the weekend and getting several outrageous rate quotes, I found this place right across the street from the beach and a few blocks from the pier. It's a not real impressive looking single story complex; clean but shows some wear and tear. The rooms are on the smallish side, but for what it is it's OK. There's a store a couple of blocks away that sells beach supplies, basic food, and most importantly beer. The small fridge in the rooms will keep it cold.The desk staff was courteous; the younger gal is kinda cute too. I believe the rooms had WiFi, but I don't use it.More</t>
   </si>
   <si>
@@ -276,6 +360,42 @@
     <t>Worst receptionist I have ever seen in my entire life. She was very rude and unprofessional. I booked this hotel one week ahead of our express vacation I was looking for a hotel close by Galveston beach so we could go walking and enjoy our surrondings. But oh boy! When I went to check in there was this "Lady" in a very bad mood and the first thing she ask was how many people? So, I tried to make a conversation with her and she inmediatly responded " you can't stay here" I tried to explain her that I reserved a room for me, my husband and three kids under 12. She said that we overexcited the amount of people in one room and that we couldn't stay there she said call book.com and let them know, but she never help me or let me talk at all she was yelling at me repeating and repeating that I couldn't stay there acting extremely rude. So I had to leave that place and start over my search for a room. Thanks God we found out one hotel room close by the beach, with better costumer service and price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r497263379-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>497263379</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Clean, very good location, free Parking, adequate breakfast.  If the beach is your focus this hotel is just perfect. Close to pleasure pier and more. Price is fair. Thumbs up!!! Restaurants and souvenir shops within walking distance!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r494348316-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>494348316</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Really impressed!</t>
+  </si>
+  <si>
+    <t>I read the reviews about an hour before we arrived and started FREAKING out! I'm a VERY clean person. Anyways, got to the hotel, talked to the lady at the desk, told her pictures looked a lot better and we were going to leave after the first night if it was not clean. She informed us rooms were renovated 6 months ago, new carpet, new beds, new everything, and the carpets had already been shampooed only being 6 months old. We got in the room (opened the door slowly cause the outside isn't the best) and we were very very impressed. Clean carpet, clean beds, clean showers, everything was really good! Seriously impressed. She let us know since Galveston is "historic" they are only allowed to do so much to the outside. But it definitely is nice and we will definitely be back on our next trip out. Don't hesitate to come here. Again, I'm a super clean freak girl, and I did not have one issue with the room!MoreShow less</t>
+  </si>
+  <si>
+    <t>I read the reviews about an hour before we arrived and started FREAKING out! I'm a VERY clean person. Anyways, got to the hotel, talked to the lady at the desk, told her pictures looked a lot better and we were going to leave after the first night if it was not clean. She informed us rooms were renovated 6 months ago, new carpet, new beds, new everything, and the carpets had already been shampooed only being 6 months old. We got in the room (opened the door slowly cause the outside isn't the best) and we were very very impressed. Clean carpet, clean beds, clean showers, everything was really good! Seriously impressed. She let us know since Galveston is "historic" they are only allowed to do so much to the outside. But it definitely is nice and we will definitely be back on our next trip out. Don't hesitate to come here. Again, I'm a super clean freak girl, and I did not have one issue with the room!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r468410898-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -336,6 +456,42 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r430262333-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>430262333</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>avoid if possible</t>
+  </si>
+  <si>
+    <t>The lady at the desk doesn't like people. She is rude. She never make you feel welcome.. I paid for 4 nights from 3Rd Oct. to 6th  Oct. but left after 3rd night. WiFi is a chance. Sometimes you get connected or not. House keeping is friendly. Our door looks like someone tried to break before. Avoid this place if possible.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r428261379-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>428261379</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Utterly dissatisfied!</t>
+  </si>
+  <si>
+    <t>The hotel was stinky, because of the carpeting I guess, the lights are dull, the stuff is rude. The only plus is that motel in near the ocean, but that is not good place to swim in, as this is the area of the undercurrent.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r391583054-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -369,9 +525,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r385937434-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -390,6 +543,42 @@
     <t>Things have changed since a lot of these reviews. When I first got there, my best friend and I saw them working on the hotel, but all of the construction was gone before the sun had set. Room was small and water was clean. There was no damage in the room. Sheets were clean too. Location is fabulous. It's a short walking distance from Pleasure Pier and almost right next to the Spot. Plenty of parking so you can walk on the seawall all day. If you don't plan on staying in your hotel for more than two hours a day, this is a good choice for you.At last it was a budget hotel on the beach so it was pretty bare. Breakfast is the worst I've had in a hotel. I won't call it a breakfast. It was just some premade pastries, cereal, coffee, and orange juice. I understand they want more customers by advertising free breakfast, but the hotel was not built for it. The hotel room is pretty much Hotel 6 standard, but I didn't come here for luxury. I went to this hotel for a roof over my head, a comfortably bed to sleep on, and hot, clean showers. I'm just lucky it didn't rain on this trip or I probably wouldn't be giving it as good as review as I do.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r370262546-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>370262546</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>WARNING!!!!! DONT STAY HERE!!!!!!</t>
+  </si>
+  <si>
+    <t>This place is a pile of garbage!!!!! The rooms are tiny, smell of DISGUSTING old cigarettes, cigarette burns on the sheets blankets and pillows. I wore sandals in the shower cause GOD ONLY KNOWS. We opened the drawer to the desk and found old opened and smeared ketchup containers. This place is junk!!!!!!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r370197620-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>370197620</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>You get exactly what you pay for. We stayed one night here and I don't think I could stay more than that. I only selected this location because we were on the water and directly across the street from the bar we wanted to be at that night. This was literally just a place to sleep after a night of drinking. The rooms are small, the bedding was stained, there were...unidentifiable things in the corners and in the creases of the baseboards. The bathroom, the only upside is the toilet flushed. When we ran the water in the sink or shower, it ran brown/orange. It would go away for a moment then turn brown/orange again so we couldn't chance a shower. The grout in the shower was black, tiles on the floor of the shower were chipped and broke, a perfect opportunity to accidentally cut your foot. We did have a mini fridge and microwave, they worked as they were supposed to. The TV couldn't be moved/turned without losing the signal. Don't bother with the "breakfast" it was a mini fridge of bottled orange juices and boxes of gas station cinnamon buns and danish rolls.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>You get exactly what you pay for. We stayed one night here and I don't think I could stay more than that. I only selected this location because we were on the water and directly across the street from the bar we wanted to be at that night. This was literally just a place to sleep after a night of drinking. The rooms are small, the bedding was stained, there were...unidentifiable things in the corners and in the creases of the baseboards. The bathroom, the only upside is the toilet flushed. When we ran the water in the sink or shower, it ran brown/orange. It would go away for a moment then turn brown/orange again so we couldn't chance a shower. The grout in the shower was black, tiles on the floor of the shower were chipped and broke, a perfect opportunity to accidentally cut your foot. We did have a mini fridge and microwave, they worked as they were supposed to. The TV couldn't be moved/turned without losing the signal. Don't bother with the "breakfast" it was a mini fridge of bottled orange juices and boxes of gas station cinnamon buns and danish rolls.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r338931504-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -447,6 +636,39 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r289538847-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>289538847</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>What a let down.</t>
+  </si>
+  <si>
+    <t>Usually privately owned hotels are worth the money and have great hospitality. Not this one. The bathroom was disgusting, black mold all over, peeling paint, broken fixtures, and a very unpleasant odor. When we complained the staff didn't seem concerned. They finally moved us to another room after showing 3 staff members that the shower didn't even work. The second room at least had a working shower but still had the nasty smell. The continental breakfast was a joke and there are no coffee makers in the room. There is also a HUGE billboard outside all of the rooms that puts off a very bright light making hard to sleep. Yes the location is good but hardly made up for the lack of cleanliness and hospitality. I am normally generous with my star ratings but 2 stars is all I could give this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Usually privately owned hotels are worth the money and have great hospitality. Not this one. The bathroom was disgusting, black mold all over, peeling paint, broken fixtures, and a very unpleasant odor. When we complained the staff didn't seem concerned. They finally moved us to another room after showing 3 staff members that the shower didn't even work. The second room at least had a working shower but still had the nasty smell. The continental breakfast was a joke and there are no coffee makers in the room. There is also a HUGE billboard outside all of the rooms that puts off a very bright light making hard to sleep. Yes the location is good but hardly made up for the lack of cleanliness and hospitality. I am normally generous with my star ratings but 2 stars is all I could give this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r286452743-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>286452743</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>First Bad Experience in Galveston</t>
+  </si>
+  <si>
+    <t>The hotel room was NOT clean. The bathroom had bowel on the shower curtain and commode. When we complained, they said sorry. But did not offer to clean or refund. We went and bought cleaner and cleaned it ourselves.we had booked there based on reviews. Only a couple of bad ones. But we were very disappointed. We're heading out for a cruise the next morning. Checked other other hotels, all booked!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r278586424-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -474,9 +696,6 @@
     <t>12/18/2014</t>
   </si>
   <si>
-    <t>Great location</t>
-  </si>
-  <si>
     <t>Our 4-night stay at Knights Inn was very good.  It was across the street from the beach and you could see the Gulf anytime you looked out.  The view of the sunrise was excellent. The room was clean and the maid provided new linens as often as we let her.  We could park in front of the room.  The night clerk doubled as a maintenance man when he had to change the circuit board in our heater.  He was also very knowledgeable of the area.  We would definitely stay there if we are ever in Galveston again.</t>
   </si>
   <si>
@@ -501,6 +720,39 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r228012964-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>228012964</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Very nice the second time around</t>
+  </si>
+  <si>
+    <t>The first time we stayed there it was rought the room had a hole n the Ceilings something was running across the Ceiling we reported it &amp; they made good the next year had a nice room looking forward to next year stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r218785920-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>218785920</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Enjoyed my visit</t>
+  </si>
+  <si>
+    <t>On the 4th of July my family took a girl trip to Galveston, first time. The stay at Knight Inn was nice, across the street from the beach was a plus. The parade route came in front of the Inn. My sister and I left  the girls in the room while we sit outside  the Inn with our wine and listen to live music from the POOP Deck. The room was clean. we was able to park in front of the room. What can I say we had a safe and enjoyable Holiday. Will be back next year.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r217673026-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -540,7 +792,37 @@
     <t>07/14/2014</t>
   </si>
   <si>
-    <t>July 2014</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r212812210-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>212812210</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Location, location, location</t>
+  </si>
+  <si>
+    <t>We stayed two nights at the hotel.  The beach is directly across the street which made it awesome to walk out in the morning and view the sunrise with the sand in your toes and listen to the waves.  The seaweed is pretty bad this year but the area by the hotel is cleaned up for the most part.  The pier is within walking distance.  The employees were nice and friendly.  The room was adequate for the price you pay.  The shower was the downfall.  Yes there was nice water pressure, hot water would have been nice.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r212669438-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>212669438</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>great view</t>
+  </si>
+  <si>
+    <t>We had a room with a view. Nice sea view. But the room was not very much. It was cheap and dirty. The air-condition was loud and the shower Terrible. The girl behind the desk very sweet. But hey if you want cheap and don't expect much good for one night.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r210269662-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
@@ -594,6 +876,45 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r200585518-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>200585518</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>We had no problems here</t>
+  </si>
+  <si>
+    <t>Myself and a friend stayed at Knights Inn over the first weekend in April. It was a 3 night stay. Our room was one behind the office, not one of those facing the boulevard, so there was no problem with traffic noise. The price was extremely reasonable for a motel on the seawall and the room (bathroom included) was clean. The AC worked well and the water was hot. Beds were comfortable and linens were clean. I would definitely stay there again and recommend it to anyone. And, the added bonus, it's right next door to the Poop Deck. You can have a "bloody mary" morning or a nightcap without driving.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Myself and a friend stayed at Knights Inn over the first weekend in April. It was a 3 night stay. Our room was one behind the office, not one of those facing the boulevard, so there was no problem with traffic noise. The price was extremely reasonable for a motel on the seawall and the room (bathroom included) was clean. The AC worked well and the water was hot. Beds were comfortable and linens were clean. I would definitely stay there again and recommend it to anyone. And, the added bonus, it's right next door to the Poop Deck. You can have a "bloody mary" morning or a nightcap without driving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r194650708-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>194650708</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>No hot water!</t>
+  </si>
+  <si>
+    <t>It wouldn't be so bad having a cold shower during the hot summertime, but not in February!!Then, when I lost my credit card key, they wouldn't give me another one and said they would open the door for me if I went out???WHAT??   I didn't want to wake the inn keeper at midnight!!I</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r194261089-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -609,9 +930,6 @@
     <t>Good location. Now I've said everything good about the hotel! We had to ask for shampoo, towels, toilet rolls. They had no extra pillows. The room was tired and run down. No coffee making machine. This hotel belongs in the 1960's. Avoid at all costs!</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r180610351-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -651,6 +969,39 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r166555569-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>166555569</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Wyndym needs to step up!!!</t>
+  </si>
+  <si>
+    <t>this motel is in a prime location &amp; needs a facelift asap! rooms could use new carpet,paint, light fixtures, shower heads, ironing boards etc. the 32"flatscreens was a nice touch. but i can't understand why some owners don't take pride of their properties and make it the best they can. other than that, we felt safe in the area, there were other families at the motelno commotion, no riffraff. the place was booked solid for fourth of july.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r164653126-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>164653126</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Complete Dump</t>
+  </si>
+  <si>
+    <t>The room was filthy, the place is beyond disgusting. Avoid at all costs. Dirty from the carpet to the ceiling. It was a last minute booking and I thought I was saving money. Mistake! I don't think that they actually try to make an attempt to clean the rooms.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r160443692-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -703,6 +1054,42 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r155404078-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>155404078</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>It's right by the beach!!</t>
+  </si>
+  <si>
+    <t>It looks pretty ghetto from the outside, but room was pretty clean beds comfy! :)  my  husba and 3 kids stayed and the fridge and microwave came in handy!! Bad thing coke machine didn't Work!:/  kinda pricey but what do you expect you're on the beach!! Had a view from my Window!!:)   This is an alright place to stay on a budget!:)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r153207412-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>153207412</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Recent Renovations - Still all about Location</t>
+  </si>
+  <si>
+    <t>It's hard to rate this hotel higher than average, because in comparison to other hotels in Galveston, it is really a 1 or 2 star. However, 1 thing remains, it has a great location. My friends and I stayed here and our main destination was the new Pleasure Pier. We were able to walk back and forth from the hotel without having to worry about parking. It definitely saved us some time and money. They have finished renovating the outside pillars and the hotel has a new paint job. It looks better than it has in several years. Enjoy!Things for the hotel to improve on: The manager is a little rude. He collected our keys from us at 10:53 from outside our rooms. Pretty ridiculous. It would have definitely been a better experience to have more smiles and a happier staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>It's hard to rate this hotel higher than average, because in comparison to other hotels in Galveston, it is really a 1 or 2 star. However, 1 thing remains, it has a great location. My friends and I stayed here and our main destination was the new Pleasure Pier. We were able to walk back and forth from the hotel without having to worry about parking. It definitely saved us some time and money. They have finished renovating the outside pillars and the hotel has a new paint job. It looks better than it has in several years. Enjoy!Things for the hotel to improve on: The manager is a little rude. He collected our keys from us at 10:53 from outside our rooms. Pretty ridiculous. It would have definitely been a better experience to have more smiles and a happier staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r142395355-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
@@ -768,6 +1155,45 @@
     <t>When i stayed here i saw a hotel from the outside looking not so bad. Untill i got in my room . It was not so clean bugs were on the tv stand. The bathroom , etc . I used my wyndham rewards to stay for two nights. I have told the owner about the bugs he said on the first day i will take care of it. So by that evening i seen more of them . So called him back. And he came with a severe attitude explaining to me it had been taken care of . And he said as if i was making this up. If i see anything take a picture of it. So did and got my evidence this time. Not trying to be rude or anything because of what galveston went thru the hurican . I thought i was being nice guy ny putting up with this. The owner was very rude about this situation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r136392667-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>136392667</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Very nasty room</t>
+  </si>
+  <si>
+    <t>We knew that this was an older hotel and didn't mind that it was a little shabby and run-down, especially given that it is directly on the seawall and is weathered by several hurricanes and tropical storms.  What we were unable to ignore; however, was the overall dirt and nastiness of the place.  The bathroom area had not been cleaned at all.  Since this was just a two-night stay and we redeemed some of our Wyndham reward points for this, we bought our own cleaning supplies and borrowed the motel's broom and dustpan. There were dead bugs in the bathroom and pieces of plastic and toilet paper all over the floor.  The bathtub was horrendous.  We will be uploading pictures and have contacted Wyndham directly regarding the shape of this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>We knew that this was an older hotel and didn't mind that it was a little shabby and run-down, especially given that it is directly on the seawall and is weathered by several hurricanes and tropical storms.  What we were unable to ignore; however, was the overall dirt and nastiness of the place.  The bathroom area had not been cleaned at all.  Since this was just a two-night stay and we redeemed some of our Wyndham reward points for this, we bought our own cleaning supplies and borrowed the motel's broom and dustpan. There were dead bugs in the bathroom and pieces of plastic and toilet paper all over the floor.  The bathtub was horrendous.  We will be uploading pictures and have contacted Wyndham directly regarding the shape of this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r136131061-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>136131061</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>1 night, not too bad</t>
+  </si>
+  <si>
+    <t>This hotel was not as bad as other people were saying but was certainly not acceptable by todays standards. The bedsheets appeared to be clean but it was not a fitted sheet, and the top cover had stains on the underside. The room had a flat screen tv and the furniture was pretty nice. The room was clean as far as I could see. Great parking and AC!!! Did not take advantage of the continental breakfast because we woke up early and decided to hit up IHOP on the way out of town. They claim there is FREE WIFI but I couldn't access it on my iphone because it had a password lock on it. Speaking of locks, the deadbolt didn't lock from the outside just the inside, and the doorknob stayed locked, so you could easily lock yourself out of your room and someone could probably easily break in thru the big glass window in front or by kicking in the door, but I didn't feel unsafe or beleive that it would actually happen. Utilized the free ice machine to chill some wine. I loved being right by the beach for my 1 year anniversary with my GF. If I ever go again to Galveston, I will probably stay somewhere a little nicer, this place needs to be remodeled. The guy who checked me in seemed nice and had my reservation handy, as did I. And upon checkout, I...This hotel was not as bad as other people were saying but was certainly not acceptable by todays standards. The bedsheets appeared to be clean but it was not a fitted sheet, and the top cover had stains on the underside. The room had a flat screen tv and the furniture was pretty nice. The room was clean as far as I could see. Great parking and AC!!! Did not take advantage of the continental breakfast because we woke up early and decided to hit up IHOP on the way out of town. They claim there is FREE WIFI but I couldn't access it on my iphone because it had a password lock on it. Speaking of locks, the deadbolt didn't lock from the outside just the inside, and the doorknob stayed locked, so you could easily lock yourself out of your room and someone could probably easily break in thru the big glass window in front or by kicking in the door, but I didn't feel unsafe or beleive that it would actually happen. Utilized the free ice machine to chill some wine. I loved being right by the beach for my 1 year anniversary with my GF. If I ever go again to Galveston, I will probably stay somewhere a little nicer, this place needs to be remodeled. The guy who checked me in seemed nice and had my reservation handy, as did I. And upon checkout, I dropped my key off and got a "thank you" from the clerk. Overall, not a bad experience, but not a real good one either, mediocre I would say.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was not as bad as other people were saying but was certainly not acceptable by todays standards. The bedsheets appeared to be clean but it was not a fitted sheet, and the top cover had stains on the underside. The room had a flat screen tv and the furniture was pretty nice. The room was clean as far as I could see. Great parking and AC!!! Did not take advantage of the continental breakfast because we woke up early and decided to hit up IHOP on the way out of town. They claim there is FREE WIFI but I couldn't access it on my iphone because it had a password lock on it. Speaking of locks, the deadbolt didn't lock from the outside just the inside, and the doorknob stayed locked, so you could easily lock yourself out of your room and someone could probably easily break in thru the big glass window in front or by kicking in the door, but I didn't feel unsafe or beleive that it would actually happen. Utilized the free ice machine to chill some wine. I loved being right by the beach for my 1 year anniversary with my GF. If I ever go again to Galveston, I will probably stay somewhere a little nicer, this place needs to be remodeled. The guy who checked me in seemed nice and had my reservation handy, as did I. And upon checkout, I...This hotel was not as bad as other people were saying but was certainly not acceptable by todays standards. The bedsheets appeared to be clean but it was not a fitted sheet, and the top cover had stains on the underside. The room had a flat screen tv and the furniture was pretty nice. The room was clean as far as I could see. Great parking and AC!!! Did not take advantage of the continental breakfast because we woke up early and decided to hit up IHOP on the way out of town. They claim there is FREE WIFI but I couldn't access it on my iphone because it had a password lock on it. Speaking of locks, the deadbolt didn't lock from the outside just the inside, and the doorknob stayed locked, so you could easily lock yourself out of your room and someone could probably easily break in thru the big glass window in front or by kicking in the door, but I didn't feel unsafe or beleive that it would actually happen. Utilized the free ice machine to chill some wine. I loved being right by the beach for my 1 year anniversary with my GF. If I ever go again to Galveston, I will probably stay somewhere a little nicer, this place needs to be remodeled. The guy who checked me in seemed nice and had my reservation handy, as did I. And upon checkout, I dropped my key off and got a "thank you" from the clerk. Overall, not a bad experience, but not a real good one either, mediocre I would say.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r135102732-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -820,6 +1246,39 @@
   </si>
   <si>
     <t>This motel is situated on Seawall Blvd. directly across from the beach. Other than that, this motel is in bad need of refurbishing. The room was extremely small. It was fairly clean but worn. The sheets had cigarette holes in them. The sink was cracked and appeared to have been for some time. The curtains on the windows had holes in them. It did have a microwave and refrigerator, albeit very old. The A/C was exceptional and kept the room very cold. The worst part of this room was the bathroom. The toilet was hard to flush. An old washcloth from the previous guest was hanging from the shower head. The tub's bottom was sunken in to the point of it was hard to stand while showering. The bathroom was very dark and just felt nasty. I never viewed any security on the property but never felt unsafe at anytime. I know that every motel can't have brand new items and wasn't expecting that for the price we paid but the overall run-down feeling will prevent us from staying at this property in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r132148785-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>132148785</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>"Economical..Not the Worst!"</t>
+  </si>
+  <si>
+    <t>On the beach..coffee in the morning was great,to my surprise, and the continental breakfast wasn't half bad. I saw a review noting "security"..Didn't know they had it. Must have been the officer's night off?  We'll stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r131719277-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>131719277</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Somewhat clean,great location,dangerous feeling,not worth it.</t>
+  </si>
+  <si>
+    <t>The room was clean.The bed had a few dead flying ants underneath the sheets.It feels like tiny bugs are crawling over your legs(if you sleep with shorts on).There is a bb pellet hole in the window,which makes me feel a little uncomfortable.The office chair in my room had broken wheels.The TV had channels for the first few days but now I can't watch anything.Internet is fine.The location is perfect,but it can get a little noisy at night(big trucks go by sometimes).The toilet is really loud when you flush it.The bathroom space is descent.The refridgerator is nice and cold but looks beaten up on the outside.The AC unit works fine.The top covers on the bed are greasy,showing a sign that they do not get washed.There was only one useable outlet to use.The beach is right across the road and the Pleasure Piere is just a short walk away.I still do not recommend staying here.It just feels as if you are in a dangerous place.The room just isn't clean enough and not well serviceable.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean.The bed had a few dead flying ants underneath the sheets.It feels like tiny bugs are crawling over your legs(if you sleep with shorts on).There is a bb pellet hole in the window,which makes me feel a little uncomfortable.The office chair in my room had broken wheels.The TV had channels for the first few days but now I can't watch anything.Internet is fine.The location is perfect,but it can get a little noisy at night(big trucks go by sometimes).The toilet is really loud when you flush it.The bathroom space is descent.The refridgerator is nice and cold but looks beaten up on the outside.The AC unit works fine.The top covers on the bed are greasy,showing a sign that they do not get washed.There was only one useable outlet to use.The beach is right across the road and the Pleasure Piere is just a short walk away.I still do not recommend staying here.It just feels as if you are in a dangerous place.The room just isn't clean enough and not well serviceable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r129711288-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
@@ -882,6 +1341,42 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r116955413-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>116955413</t>
+  </si>
+  <si>
+    <t>08/19/2011</t>
+  </si>
+  <si>
+    <t>Dirty, dirty, dirty</t>
+  </si>
+  <si>
+    <t>If an offer seems too good to be true – it is.  Such is the case with this property.Simply put - everything was or seemed dirty - floor, bathroom, bed, linens, etc.  Mgmt seemed unaware of the problems - surprised even.  The low cost for the room could not make up for its condition.We will not go again and will recommend that others do not stay there.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r116284643-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>116284643</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Horrible Inn Galveston.  Not even pets are suited to stay in this lodging.</t>
+  </si>
+  <si>
+    <t>I got this lodging from Hotwire.com as giving 2 stars accomodation.  It does not deserve to be rated as 1 star.  It is filty and decrepit. The beddings are dirty and old.  Missing molding on the bath room door and tile floor are crack and dirty.  Towel are thin and only provide for 1 person.  The tub is moldy and dead bolt on door is broken.  The office is missing tourist maps and attended does not care if they run out of tourist informations.  This place is not worth a penny.  Stay away from this place and it is scaryyyyyy.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r115918608-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -930,10 +1425,46 @@
     <t>Yes, the price is right but that would be the only thing. If you don't care about anything other than a roof and bed, you'll love it, otherwise, this place is terrible. The room has no clock but it does have a microwave that burned all the popcorn we put in it (while it was still popping) and wouldn't heat any colder food. The only free and good thing there was an ice maker. One of the first things I noticed was the bullet hole in our window (never a good sign). It smelled akward in the room. The lights were so yellow it looked like they came from a drug trade scene in a movie and the light above the vanity didn't even work. The bed was hard as a rock and as if that didn't make it hard enough to sleep, the ac was incredibly loud and sounded like it was about to go out. The tiny bathroom was disgusting (what was the lady with a cart and broom for?) and there was NO HOT WATER in the shower. The continental breakfast was the smallest I had ever seen. Milk in a pitcher (and not cold) two cereals, very few honey buns, over ripe fruit, and then green fruit, and a few sunny d's (none of which had enough to feed the whole hotel im sure). The hotel had NO POOL and over all my mother and I...Yes, the price is right but that would be the only thing. If you don't care about anything other than a roof and bed, you'll love it, otherwise, this place is terrible. The room has no clock but it does have a microwave that burned all the popcorn we put in it (while it was still popping) and wouldn't heat any colder food. The only free and good thing there was an ice maker. One of the first things I noticed was the bullet hole in our window (never a good sign). It smelled akward in the room. The lights were so yellow it looked like they came from a drug trade scene in a movie and the light above the vanity didn't even work. The bed was hard as a rock and as if that didn't make it hard enough to sleep, the ac was incredibly loud and sounded like it was about to go out. The tiny bathroom was disgusting (what was the lady with a cart and broom for?) and there was NO HOT WATER in the shower. The continental breakfast was the smallest I had ever seen. Milk in a pitcher (and not cold) two cereals, very few honey buns, over ripe fruit, and then green fruit, and a few sunny d's (none of which had enough to feed the whole hotel im sure). The hotel had NO POOL and over all my mother and I HATED this place. Honestly, just go stay somewhere else.MoreShow less</t>
   </si>
   <si>
-    <t>July 2011</t>
-  </si>
-  <si>
     <t>Yes, the price is right but that would be the only thing. If you don't care about anything other than a roof and bed, you'll love it, otherwise, this place is terrible. The room has no clock but it does have a microwave that burned all the popcorn we put in it (while it was still popping) and wouldn't heat any colder food. The only free and good thing there was an ice maker. One of the first things I noticed was the bullet hole in our window (never a good sign). It smelled akward in the room. The lights were so yellow it looked like they came from a drug trade scene in a movie and the light above the vanity didn't even work. The bed was hard as a rock and as if that didn't make it hard enough to sleep, the ac was incredibly loud and sounded like it was about to go out. The tiny bathroom was disgusting (what was the lady with a cart and broom for?) and there was NO HOT WATER in the shower. The continental breakfast was the smallest I had ever seen. Milk in a pitcher (and not cold) two cereals, very few honey buns, over ripe fruit, and then green fruit, and a few sunny d's (none of which had enough to feed the whole hotel im sure). The hotel had NO POOL and over all my mother and I...Yes, the price is right but that would be the only thing. If you don't care about anything other than a roof and bed, you'll love it, otherwise, this place is terrible. The room has no clock but it does have a microwave that burned all the popcorn we put in it (while it was still popping) and wouldn't heat any colder food. The only free and good thing there was an ice maker. One of the first things I noticed was the bullet hole in our window (never a good sign). It smelled akward in the room. The lights were so yellow it looked like they came from a drug trade scene in a movie and the light above the vanity didn't even work. The bed was hard as a rock and as if that didn't make it hard enough to sleep, the ac was incredibly loud and sounded like it was about to go out. The tiny bathroom was disgusting (what was the lady with a cart and broom for?) and there was NO HOT WATER in the shower. The continental breakfast was the smallest I had ever seen. Milk in a pitcher (and not cold) two cereals, very few honey buns, over ripe fruit, and then green fruit, and a few sunny d's (none of which had enough to feed the whole hotel im sure). The hotel had NO POOL and over all my mother and I HATED this place. Honestly, just go stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r113476480-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>113476480</t>
+  </si>
+  <si>
+    <t>06/14/2011</t>
+  </si>
+  <si>
+    <t>Gross Me Out!</t>
+  </si>
+  <si>
+    <t>We should've known to turn &amp; run the other direction when we read the sign at the front desk.."No refunds after 5 minutes" . Seriously? Don't let the somewhat decent look of the outside fool you, the inside was nasty! The carpet was grossly stained, the furniture looked as if he hadn't been dusted in about 2 yrs, the shower panel was coming off the wall, the shower curtain made me gag, the towels felt like sandpaper &amp; worst of all, I saw a MOUSE! I couldn't go to sleep after seeing it run by the bed towards the bathroom. The location is the only positive out of the whole experience, but totally not worth your money or health! GAG A MAGGOT!MoreShow less</t>
+  </si>
+  <si>
+    <t>We should've known to turn &amp; run the other direction when we read the sign at the front desk.."No refunds after 5 minutes" . Seriously? Don't let the somewhat decent look of the outside fool you, the inside was nasty! The carpet was grossly stained, the furniture looked as if he hadn't been dusted in about 2 yrs, the shower panel was coming off the wall, the shower curtain made me gag, the towels felt like sandpaper &amp; worst of all, I saw a MOUSE! I couldn't go to sleep after seeing it run by the bed towards the bathroom. The location is the only positive out of the whole experience, but totally not worth your money or health! GAG A MAGGOT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r110642885-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>110642885</t>
+  </si>
+  <si>
+    <t>05/30/2011</t>
+  </si>
+  <si>
+    <t>Horrible place to stay!</t>
+  </si>
+  <si>
+    <t>This is the worst hotel we've ever seen. First, the Indian guy  in the reception is rude and unaccomodating. The hotel is run down, the carpet  stained all over, the bathroom is not so clean, not sure if they cleaned it before we checked in, I saw some yuck stained on the toilet bowl. They used the the cheapest tissue rolls. Plus the bed is a nightmare.. The moment I laid down, I felt right away that the bed sheet was not clean and and there was a cigaret hole on the sheet. We requested to change the bed sheet and when we pulled away the sheet, we found the underneath cover is so dirty and looks like they haven't change it for months, then we saw bugs on the bed and that's it, we decide to leave the place right away even it is in the middle of the night! I cannot imagine staying another  minutes in that horrible place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>This is the worst hotel we've ever seen. First, the Indian guy  in the reception is rude and unaccomodating. The hotel is run down, the carpet  stained all over, the bathroom is not so clean, not sure if they cleaned it before we checked in, I saw some yuck stained on the toilet bowl. They used the the cheapest tissue rolls. Plus the bed is a nightmare.. The moment I laid down, I felt right away that the bed sheet was not clean and and there was a cigaret hole on the sheet. We requested to change the bed sheet and when we pulled away the sheet, we found the underneath cover is so dirty and looks like they haven't change it for months, then we saw bugs on the bed and that's it, we decide to leave the place right away even it is in the middle of the night! I cannot imagine staying another  minutes in that horrible place.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d1852836-r110299004-Knights_Inn_Galveston-Galveston_Galveston_Island_Texas.html</t>
@@ -1483,26 +2014,16 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1525,34 +2046,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1566,7 +2087,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1603,20 +2124,24 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1639,46 +2164,46 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1686,7 +2211,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1702,34 +2227,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1743,7 +2268,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1759,34 +2284,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1800,7 +2325,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -1816,43 +2341,43 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
         <v>86</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>87</v>
-      </c>
-      <c r="J8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" t="n">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
         <v>5</v>
       </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1863,7 +2388,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1879,39 +2404,43 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
         <v>94</v>
       </c>
-      <c r="J9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s">
-        <v>53</v>
-      </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>1</v>
@@ -1922,7 +2451,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -1938,48 +2467,54 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1995,52 +2530,48 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
         <v>106</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -2056,34 +2587,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
         <v>111</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
         <v>112</v>
-      </c>
-      <c r="J12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>116</v>
-      </c>
-      <c r="O12" t="s">
-        <v>117</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2097,7 +2628,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2113,48 +2644,54 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
         <v>118</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" t="s">
-        <v>122</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2170,34 +2707,34 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
         <v>124</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" t="s">
-        <v>128</v>
-      </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2211,7 +2748,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -2227,48 +2764,54 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
         <v>130</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>131</v>
       </c>
-      <c r="J15" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>135</v>
-      </c>
       <c r="O15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -2284,50 +2827,42 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>138</v>
       </c>
-      <c r="J16" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>142</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2335,7 +2870,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -2351,34 +2886,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
         <v>143</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>144</v>
       </c>
-      <c r="J17" t="s">
+      <c r="O17" t="s">
         <v>145</v>
-      </c>
-      <c r="K17" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>148</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2392,7 +2927,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
@@ -2408,44 +2943,46 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>150</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
         <v>151</v>
       </c>
-      <c r="K18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>154</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2453,7 +2990,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2469,44 +3006,44 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
         <v>155</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>156</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>157</v>
       </c>
-      <c r="K19" t="s">
-        <v>158</v>
-      </c>
-      <c r="L19" t="s">
-        <v>159</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>160</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2514,7 +3051,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -2530,46 +3067,44 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
         <v>161</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>162</v>
       </c>
-      <c r="J20" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" t="s">
-        <v>164</v>
-      </c>
-      <c r="L20" t="s">
-        <v>165</v>
-      </c>
       <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O20" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2577,7 +3112,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
@@ -2593,54 +3128,48 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
         <v>166</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>167</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>168</v>
       </c>
-      <c r="K21" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
@@ -2656,53 +3185,49 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
         <v>171</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>172</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>173</v>
       </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2738,25 +3263,23 @@
         <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2764,7 +3287,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
@@ -2792,34 +3315,32 @@
         <v>182</v>
       </c>
       <c r="J24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" t="s">
         <v>183</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>184</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>185</v>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2827,7 +3348,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
@@ -2843,7 +3364,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2852,49 +3373,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -2910,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2919,25 +3430,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2951,7 +3462,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
@@ -2967,7 +3478,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2976,40 +3487,42 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
         <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
@@ -3032,7 +3545,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3041,38 +3554,34 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O28" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
         <v>2</v>
       </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
         <v>4</v>
       </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>1</v>
@@ -3083,7 +3592,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
@@ -3099,7 +3608,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3108,39 +3617,45 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
@@ -3183,31 +3698,21 @@
         <v>222</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31">
@@ -3223,50 +3728,44 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>224</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>225</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" t="s">
         <v>226</v>
       </c>
-      <c r="K31" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>227</v>
       </c>
-      <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>228</v>
-      </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
         <v>5</v>
       </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3274,7 +3773,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32">
@@ -3290,47 +3789,41 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>229</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>230</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>231</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>232</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
         <v>233</v>
       </c>
-      <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>234</v>
-      </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>4</v>
@@ -3341,7 +3834,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33">
@@ -3357,37 +3850,33 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
         <v>236</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>237</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>238</v>
-      </c>
-      <c r="K33" t="s">
-        <v>239</v>
-      </c>
-      <c r="L33" t="s">
-        <v>240</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
-      <c r="N33" t="s">
-        <v>241</v>
-      </c>
-      <c r="O33" t="s">
-        <v>72</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
         <v>3</v>
@@ -3400,7 +3889,7 @@
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3408,7 +3897,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34">
@@ -3424,46 +3913,46 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" t="s">
         <v>242</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>243</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
         <v>244</v>
       </c>
-      <c r="K34" t="s">
-        <v>245</v>
-      </c>
-      <c r="L34" t="s">
-        <v>246</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
+      <c r="O34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
         <v>4</v>
       </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3471,7 +3960,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
@@ -3487,46 +3976,46 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" t="s">
         <v>248</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>249</v>
       </c>
-      <c r="J35" t="s">
-        <v>250</v>
-      </c>
-      <c r="K35" t="s">
-        <v>251</v>
-      </c>
-      <c r="L35" t="s">
-        <v>252</v>
-      </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s"/>
       <c r="O35" t="s"/>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
         <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3534,7 +4023,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
@@ -3550,35 +4039,31 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" t="s">
         <v>253</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>254</v>
       </c>
-      <c r="J36" t="s">
-        <v>255</v>
-      </c>
-      <c r="K36" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" t="s">
-        <v>257</v>
-      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
-      <c r="N36" t="s">
-        <v>258</v>
-      </c>
-      <c r="O36" t="s">
-        <v>84</v>
-      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
         <v>1</v>
       </c>
@@ -3586,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -3601,7 +4086,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37">
@@ -3617,7 +4102,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3626,50 +4111,44 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J37" t="s">
-        <v>261</v>
-      </c>
-      <c r="K37" t="s">
-        <v>262</v>
-      </c>
-      <c r="L37" t="s">
-        <v>263</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>2</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s">
-        <v>265</v>
-      </c>
+      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3684,7 +4163,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3693,37 +4172,41 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L38" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="N38" t="s">
+        <v>263</v>
+      </c>
+      <c r="O38" t="s">
+        <v>112</v>
+      </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3731,7 +4214,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39">
@@ -3747,7 +4230,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3756,41 +4239,41 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="O39" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3798,7 +4281,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40">
@@ -3814,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3823,41 +4306,37 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J40" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K40" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="s">
-        <v>283</v>
-      </c>
-      <c r="O40" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3865,7 +4344,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41">
@@ -3881,7 +4360,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3890,37 +4369,37 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="J41" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="K41" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
         <v>4</v>
       </c>
-      <c r="N41" t="s">
-        <v>289</v>
-      </c>
-      <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3928,7 +4407,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
@@ -3944,7 +4423,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -3953,37 +4432,41 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J42" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K42" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L42" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>285</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
+      </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
         <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3991,7 +4474,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43">
@@ -4007,7 +4490,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4016,37 +4499,41 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J43" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L43" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="O43" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4054,7 +4541,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44">
@@ -4070,7 +4557,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4079,24 +4566,28 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="J44" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K44" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L44" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
+      <c r="N44" t="s">
+        <v>298</v>
+      </c>
+      <c r="O44" t="s">
+        <v>58</v>
+      </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -4105,7 +4596,7 @@
         <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4117,7 +4608,2018 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>299</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>300</v>
+      </c>
+      <c r="J45" t="s">
+        <v>301</v>
+      </c>
+      <c r="K45" t="s">
+        <v>302</v>
+      </c>
+      <c r="L45" t="s">
+        <v>303</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>298</v>
+      </c>
+      <c r="O45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>304</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>305</v>
+      </c>
+      <c r="J46" t="s">
         <v>306</v>
+      </c>
+      <c r="K46" t="s">
+        <v>307</v>
+      </c>
+      <c r="L46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>309</v>
+      </c>
+      <c r="O46" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" t="s">
+        <v>313</v>
+      </c>
+      <c r="K47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s">
+        <v>315</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>316</v>
+      </c>
+      <c r="O47" t="s">
+        <v>112</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>317</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>318</v>
+      </c>
+      <c r="J48" t="s">
+        <v>319</v>
+      </c>
+      <c r="K48" t="s">
+        <v>320</v>
+      </c>
+      <c r="L48" t="s">
+        <v>321</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>316</v>
+      </c>
+      <c r="O48" t="s">
+        <v>112</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" t="s">
+        <v>324</v>
+      </c>
+      <c r="K49" t="s">
+        <v>325</v>
+      </c>
+      <c r="L49" t="s">
+        <v>326</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>327</v>
+      </c>
+      <c r="O49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>328</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>329</v>
+      </c>
+      <c r="J50" t="s">
+        <v>330</v>
+      </c>
+      <c r="K50" t="s">
+        <v>331</v>
+      </c>
+      <c r="L50" t="s">
+        <v>332</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>333</v>
+      </c>
+      <c r="O50" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>334</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>335</v>
+      </c>
+      <c r="J51" t="s">
+        <v>336</v>
+      </c>
+      <c r="K51" t="s">
+        <v>337</v>
+      </c>
+      <c r="L51" t="s">
+        <v>338</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>339</v>
+      </c>
+      <c r="O51" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>341</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>342</v>
+      </c>
+      <c r="J52" t="s">
+        <v>343</v>
+      </c>
+      <c r="K52" t="s">
+        <v>117</v>
+      </c>
+      <c r="L52" t="s">
+        <v>344</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>345</v>
+      </c>
+      <c r="O52" t="s">
+        <v>58</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>346</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>347</v>
+      </c>
+      <c r="J53" t="s">
+        <v>348</v>
+      </c>
+      <c r="K53" t="s">
+        <v>349</v>
+      </c>
+      <c r="L53" t="s">
+        <v>350</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>351</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" t="s">
+        <v>353</v>
+      </c>
+      <c r="K54" t="s">
+        <v>354</v>
+      </c>
+      <c r="L54" t="s">
+        <v>355</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>356</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J55" t="s">
+        <v>360</v>
+      </c>
+      <c r="K55" t="s">
+        <v>361</v>
+      </c>
+      <c r="L55" t="s">
+        <v>362</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>363</v>
+      </c>
+      <c r="O55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>365</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>366</v>
+      </c>
+      <c r="J56" t="s">
+        <v>367</v>
+      </c>
+      <c r="K56" t="s">
+        <v>368</v>
+      </c>
+      <c r="L56" t="s">
+        <v>369</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>370</v>
+      </c>
+      <c r="O56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>371</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>372</v>
+      </c>
+      <c r="J57" t="s">
+        <v>373</v>
+      </c>
+      <c r="K57" t="s">
+        <v>374</v>
+      </c>
+      <c r="L57" t="s">
+        <v>375</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>378</v>
+      </c>
+      <c r="J58" t="s">
+        <v>379</v>
+      </c>
+      <c r="K58" t="s">
+        <v>380</v>
+      </c>
+      <c r="L58" t="s">
+        <v>381</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O58" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>384</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59" t="s">
+        <v>386</v>
+      </c>
+      <c r="K59" t="s">
+        <v>387</v>
+      </c>
+      <c r="L59" t="s">
+        <v>388</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>382</v>
+      </c>
+      <c r="O59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J60" t="s">
+        <v>392</v>
+      </c>
+      <c r="K60" t="s">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s">
+        <v>394</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>396</v>
+      </c>
+      <c r="J61" t="s">
+        <v>397</v>
+      </c>
+      <c r="K61" t="s">
+        <v>398</v>
+      </c>
+      <c r="L61" t="s">
+        <v>399</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>400</v>
+      </c>
+      <c r="O61" t="s">
+        <v>112</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>401</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>402</v>
+      </c>
+      <c r="J62" t="s">
+        <v>403</v>
+      </c>
+      <c r="K62" t="s">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s">
+        <v>405</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>406</v>
+      </c>
+      <c r="O62" t="s">
+        <v>58</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>408</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>409</v>
+      </c>
+      <c r="J63" t="s">
+        <v>410</v>
+      </c>
+      <c r="K63" t="s">
+        <v>411</v>
+      </c>
+      <c r="L63" t="s">
+        <v>412</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>406</v>
+      </c>
+      <c r="O63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>413</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>414</v>
+      </c>
+      <c r="J64" t="s">
+        <v>415</v>
+      </c>
+      <c r="K64" t="s">
+        <v>416</v>
+      </c>
+      <c r="L64" t="s">
+        <v>417</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>419</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>420</v>
+      </c>
+      <c r="J65" t="s">
+        <v>421</v>
+      </c>
+      <c r="K65" t="s">
+        <v>422</v>
+      </c>
+      <c r="L65" t="s">
+        <v>423</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>424</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>425</v>
+      </c>
+      <c r="J66" t="s">
+        <v>426</v>
+      </c>
+      <c r="K66" t="s">
+        <v>427</v>
+      </c>
+      <c r="L66" t="s">
+        <v>428</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>429</v>
+      </c>
+      <c r="O66" t="s">
+        <v>94</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>432</v>
+      </c>
+      <c r="J67" t="s">
+        <v>433</v>
+      </c>
+      <c r="K67" t="s">
+        <v>434</v>
+      </c>
+      <c r="L67" t="s">
+        <v>435</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>436</v>
+      </c>
+      <c r="O67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>437</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>438</v>
+      </c>
+      <c r="J68" t="s">
+        <v>439</v>
+      </c>
+      <c r="K68" t="s">
+        <v>440</v>
+      </c>
+      <c r="L68" t="s">
+        <v>441</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>442</v>
+      </c>
+      <c r="O68" t="s">
+        <v>112</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>443</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>444</v>
+      </c>
+      <c r="J69" t="s">
+        <v>445</v>
+      </c>
+      <c r="K69" t="s">
+        <v>446</v>
+      </c>
+      <c r="L69" t="s">
+        <v>447</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>448</v>
+      </c>
+      <c r="O69" t="s">
+        <v>112</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>449</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>450</v>
+      </c>
+      <c r="J70" t="s">
+        <v>451</v>
+      </c>
+      <c r="K70" t="s">
+        <v>452</v>
+      </c>
+      <c r="L70" t="s">
+        <v>453</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>454</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>455</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>456</v>
+      </c>
+      <c r="J71" t="s">
+        <v>457</v>
+      </c>
+      <c r="K71" t="s">
+        <v>458</v>
+      </c>
+      <c r="L71" t="s">
+        <v>459</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>460</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>461</v>
+      </c>
+      <c r="J72" t="s">
+        <v>462</v>
+      </c>
+      <c r="K72" t="s">
+        <v>463</v>
+      </c>
+      <c r="L72" t="s">
+        <v>464</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>442</v>
+      </c>
+      <c r="O72" t="s">
+        <v>112</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>466</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>467</v>
+      </c>
+      <c r="J73" t="s">
+        <v>468</v>
+      </c>
+      <c r="K73" t="s">
+        <v>469</v>
+      </c>
+      <c r="L73" t="s">
+        <v>470</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>454</v>
+      </c>
+      <c r="O73" t="s">
+        <v>94</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>472</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>473</v>
+      </c>
+      <c r="J74" t="s">
+        <v>474</v>
+      </c>
+      <c r="K74" t="s">
+        <v>475</v>
+      </c>
+      <c r="L74" t="s">
+        <v>476</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>477</v>
+      </c>
+      <c r="O74" t="s">
+        <v>58</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>49755</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>479</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>480</v>
+      </c>
+      <c r="J75" t="s">
+        <v>481</v>
+      </c>
+      <c r="K75" t="s">
+        <v>482</v>
+      </c>
+      <c r="L75" t="s">
+        <v>483</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
